--- a/inputs/AddictO_Human_behaviour_Defs.xlsx
+++ b/inputs/AddictO_Human_behaviour_Defs.xlsx
@@ -15998,63 +15998,67 @@
       <c r="U295" s="2" t="inlineStr"/>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="inlineStr">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>BCIO:1234</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>prescribing behaviour</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Providing healthcare</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Human behaviour</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>RW; BG</t>
+        </is>
+      </c>
+      <c r="S296" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="B296" s="2" t="inlineStr">
-        <is>
-          <t>prescribing behaviour</t>
-        </is>
-      </c>
-      <c r="C296" s="2" t="inlineStr">
-        <is>
-          <t>Providing healthcare that involves advising and authorising the use of a treatment to improve or maintain another person's health or wellbeing.</t>
-        </is>
-      </c>
-      <c r="D296" s="2" t="inlineStr"/>
-      <c r="E296" s="2" t="inlineStr"/>
-      <c r="F296" s="2" t="inlineStr">
-        <is>
-          <t>Providing healthcare</t>
-        </is>
-      </c>
-      <c r="G296" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H296" s="2" t="inlineStr">
-        <is>
-          <t>Human behaviour</t>
-        </is>
-      </c>
-      <c r="I296" s="2" t="inlineStr"/>
-      <c r="J296" s="2" t="inlineStr"/>
-      <c r="K296" s="2" t="inlineStr"/>
-      <c r="L296" s="2" t="inlineStr"/>
-      <c r="M296" s="2" t="inlineStr"/>
-      <c r="N296" s="2" t="inlineStr"/>
-      <c r="O296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q296" s="2" t="inlineStr"/>
-      <c r="R296" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="S296" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T296" s="2" t="inlineStr"/>
-      <c r="U296" s="2" t="inlineStr"/>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr"/>
